--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1264350.561141732</v>
+        <v>1339880.230806537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>320.797539652425</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>283.3858344613784</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>76.00008775758467</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.88877949312982</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>279.0097760062007</v>
+        <v>161.8055679903325</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>274.487665874544</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>239.0111210755005</v>
+        <v>275.5490711444939</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.60104689954375</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4728191948449</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185879</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.4321567831321</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>262.306353505601</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>76.03219122548634</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>6.348656829619294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.7846649772065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2968,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12.85505776148871</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>35.4059971818164</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>64.34190763938523</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>57.64843562452558</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>66.98836639312849</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>26.87586934366252</v>
       </c>
       <c r="G40" t="n">
-        <v>60.54139430664167</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>44.75928143985996</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>106.1568787371629</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.2572191628421</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>323.2572191628421</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>323.2572191628421</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>323.2572191628421</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>176.3672716649318</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>176.3672716649318</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
         <v>99.5995062532301</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>323.2572191628421</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W4" t="n">
-        <v>323.2572191628421</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>323.2572191628421</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>323.2572191628421</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.915471247702</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>1491.915471247702</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.06035969704</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.2874324143854</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>108.2874324143854</v>
+        <v>557.9544193631567</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.2874324143854</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,37 +5026,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5084,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5227,16 +5229,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5428,7 +5430,7 @@
         <v>130.9054447954967</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5501,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X19" t="n">
-        <v>446.729020889808</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.9364417462779</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575854</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>324.1339240296785</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>174.0172846173428</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6078,10 +6080,10 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>4030.532620818351</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>4030.532620818351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>4030.532620818351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.740041674821</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6217,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,22 +6229,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1133.156678913841</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.156678913841</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>912.3640997703109</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.666285013068</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>576.7084220047017</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>428.7953284223086</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>428.7953284223086</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>260.6200067421291</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>110.2019982900724</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6655,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>1432.107328986838</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1211.314749843308</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847509</v>
+        <v>618.0053231677515</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>301.1560466574515</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>301.1560466574515</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>132.9807249772721</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>132.9807249772721</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4684.787643677749</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4684.787643677749</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4684.787643677749</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>4684.787643677749</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>4684.787643677749</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X34" t="n">
-        <v>4684.787643677749</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.787643677749</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3686.322319899658</v>
+        <v>333.8182909469084</v>
       </c>
       <c r="C37" t="n">
-        <v>3517.386136971751</v>
+        <v>164.8821080190015</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>164.8821080190015</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>164.8821080190015</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>164.8821080190015</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>164.8821080190015</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>164.8821080190015</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>4606.170084808406</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W37" t="n">
-        <v>4316.752914771445</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X37" t="n">
-        <v>4088.763363873428</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y37" t="n">
-        <v>3867.970784729898</v>
+        <v>333.8182909469084</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324574</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324574</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324574</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3226148324574</v>
+        <v>124.3644342316621</v>
       </c>
       <c r="F40" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324574</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324574</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324574</v>
+        <v>453.925992644295</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.2581065529675</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C46" t="n">
-        <v>675.2581065529675</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7834,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>918.9243464309878</v>
       </c>
       <c r="V46" t="n">
-        <v>964.135741824786</v>
+        <v>918.9243464309878</v>
       </c>
       <c r="W46" t="n">
-        <v>964.135741824786</v>
+        <v>918.9243464309878</v>
       </c>
       <c r="X46" t="n">
-        <v>964.135741824786</v>
+        <v>690.9347955329705</v>
       </c>
       <c r="Y46" t="n">
-        <v>856.9065713832073</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>73.53204524670082</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871784</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656773</v>
       </c>
       <c r="I16" t="n">
-        <v>77.0677756624132</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.39982339880518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>23.93099889297633</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>70.40177142108283</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>245.7889864942087</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.0473152047308</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,13 +24660,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>97.56418770278327</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.01324828245558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>133.578902344218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>90.96703739368678</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>43.43087907114351</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>118.5451786792687</v>
       </c>
       <c r="G40" t="n">
-        <v>105.9521741567359</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>241.4780709587174</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.4277746149318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
@@ -26338,19 +26340,19 @@
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
@@ -26430,13 +26432,13 @@
         <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
@@ -26445,7 +26447,7 @@
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
@@ -26454,10 +26456,10 @@
         <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26524,43 @@
         <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514256</v>
+        <v>205891.2527514254</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514256</v>
+        <v>205891.2527514254</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449815</v>
+        <v>-203896.4272449813</v>
       </c>
       <c r="F6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319149</v>
       </c>
       <c r="G6" t="n">
         <v>321263.6092319146</v>
       </c>
       <c r="H6" t="n">
-        <v>321263.6092319147</v>
+        <v>321263.6092319146</v>
       </c>
       <c r="I6" t="n">
         <v>321263.6092319146</v>
       </c>
       <c r="J6" t="n">
-        <v>144840.3900393217</v>
+        <v>144840.3900393216</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319147</v>
+        <v>321263.6092319146</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319145</v>
       </c>
       <c r="M6" t="n">
         <v>186462.5939980775</v>
       </c>
       <c r="N6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319148</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319149</v>
       </c>
       <c r="P6" t="n">
         <v>321263.6092319146</v>
@@ -26738,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>102.8521041946752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>80.17080108421048</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.2488638306982</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>102.9205940660611</v>
+        <v>220.1248020819293</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>14.65885272800575</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>12.03533246204699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>130.7199796029685</v>
+        <v>94.18202953397514</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>158.6457741990841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>57.23683619419222</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35029,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188191</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,16 +37162,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>322.7897502027251</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339880.230806537</v>
+        <v>1332863.215914826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>320.797539652425</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7.130758887765173</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.88877949312982</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>161.8055679903325</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>377.1418269629391</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>126.5499088748945</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053125</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>132.6301997610084</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>275.5490711444939</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>168.4728191948449</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>97.42715891998027</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>107.5487000436683</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>109.4779828373173</v>
       </c>
       <c r="U19" t="n">
-        <v>262.306353505601</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>76.03219122548634</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>208.0572134066761</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>143.2925104849746</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>12.85505776148871</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>207.9296784859477</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>35.4059971818164</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.98836639312849</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.6534898356752</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>26.87586934366252</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>215.0546805228859</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>14.7366432835706</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>47.20011114811118</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>44.75928143985996</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247703</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.952954307291</v>
+        <v>999.3462029814875</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>999.3462029814875</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>588.36029819188</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477206</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653275</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674171</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574956</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574956</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574956</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.1618402196266</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>557.9544193631567</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.1618402196266</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U19" t="n">
-        <v>810.2549326310402</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V19" t="n">
-        <v>555.5704444251534</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5740,46 +5740,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0701069575854</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>324.1339240296785</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>174.0172846173428</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247858</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W22" t="n">
-        <v>674.7185717878251</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>674.7185717878251</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.7185717878251</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,43 +6211,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>241.9570010410683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.8250614170374</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>726.8250614170374</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>576.7084220047017</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>428.7953284223086</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>428.7953284223086</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>260.6200067421291</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>110.2019982900724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6657,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>618.0053231677515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>449.0691402398446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>449.0691402398446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>301.1560466574515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>301.1560466574515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>132.9807249772721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>132.9807249772721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.446367141521</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.446367141521</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>799.6537879979912</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>333.8182909469084</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>164.8821080190015</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>164.8821080190015</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>164.8821080190015</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>164.8821080190015</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>164.8821080190015</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>164.8821080190015</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273991</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>554.6108700904385</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>554.6108700904385</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>333.8182909469084</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>272.2775278140552</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>272.2775278140552</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>272.2775278140552</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>124.3644342316621</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688033</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799324</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471151</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1357418247858</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W40" t="n">
-        <v>674.7185717878251</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X40" t="n">
-        <v>674.7185717878251</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y40" t="n">
-        <v>453.925992644295</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>260.0156833089119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>112.1025897265188</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.2863307027308</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>509.2863307027308</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>144.8939714078729</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>918.9243464309878</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>918.9243464309878</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>918.9243464309878</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>690.9347955329705</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>690.9347955329705</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928328</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>73.53204524670082</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>178.9742982929227</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5623585656773</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>112.0695782210719</v>
       </c>
       <c r="U19" t="n">
-        <v>23.93099889297633</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.40177142108283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>78.18013899190123</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>5.621317882561556</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>97.56418770278327</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>44.2079648378803</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>75.01324828245558</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>228.6728233935897</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>43.43087907114351</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271405</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>118.5451786792687</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>71.18267187569145</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>130.6844047393606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>119.2934573152664</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>241.4780709587174</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="F2" t="n">
-        <v>449683.4186983654</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
@@ -26337,25 +26337,25 @@
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="O2" t="n">
-        <v>449683.4186983654</v>
-      </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="M4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631191</v>
+        <v>-384076.6264631189</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514254</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514254</v>
+        <v>205891.2527514255</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449813</v>
+        <v>-204871.0185047033</v>
       </c>
       <c r="F6" t="n">
-        <v>321263.6092319149</v>
+        <v>320289.017972193</v>
       </c>
       <c r="G6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721929</v>
       </c>
       <c r="H6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.017972193</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.017972193</v>
       </c>
       <c r="J6" t="n">
-        <v>144840.3900393216</v>
+        <v>143865.7987796002</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721933</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319145</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="M6" t="n">
-        <v>186462.5939980775</v>
+        <v>185488.0027383559</v>
       </c>
       <c r="N6" t="n">
-        <v>321263.6092319148</v>
+        <v>320289.0179721928</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319149</v>
+        <v>320289.0179721928</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.47535211858258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>342.1102098296478</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>171.2488638306982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>220.1248020819293</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>36.64234305785584</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>8.415712917443699</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800575</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>281.1539702597867</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>94.18202953397514</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>57.23683619419222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>121.1574944321145</v>
       </c>
     </row>
     <row r="11">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-2.097085319092366e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>610.8663700188191</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299067</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>322.7897502027251</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332863.215914826</v>
+        <v>1337802.478763858</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>385.8025446147406</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.130758887765173</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>377.1418269629391</v>
+        <v>375.212694464416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>97.42715891998049</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>126.5499088748945</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>132.6301997610084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.8950372953905</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>159.9479264102629</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.42715891998027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>107.5487000436683</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>63.1779444490595</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.51115925120723</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>109.4779828373173</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>208.0572134066761</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185879</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>207.9296784859477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>57.5645290049876</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6534898356752</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>215.0546805228859</v>
+        <v>68.02393963678952</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20011114811118</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1721.077375192013</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1335.289122593769</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>924.3032178041615</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1655.280787374151</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1655.280787374151</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.57441852865</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1357.611901588238</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>999.3462029814875</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="E5" t="n">
-        <v>999.3462029814875</v>
+        <v>1324.592304260108</v>
       </c>
       <c r="F5" t="n">
-        <v>588.36029819188</v>
+        <v>913.6063994705003</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4606,13 +4606,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>198.010777889574</v>
       </c>
       <c r="E7" t="n">
-        <v>227.4276970359519</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>227.4276970359519</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>227.4276970359519</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>227.4276970359519</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
         <v>99.59950625323012</v>
@@ -4962,52 +4962,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>646.5480829319661</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>646.5480829319661</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7555037884359</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,13 +5293,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5436,7 +5436,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="17">
@@ -5494,25 +5494,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5530,31 +5530,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>773.454678735334</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1077.337335987485</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>788.2086972010437</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>533.5242089951569</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1070389581962</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,19 +5737,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>865.0520438420759</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>865.0520438420759</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>865.0520438420759</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X22" t="n">
-        <v>637.0624929440586</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201021</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201021</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201021</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201021</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F25" t="n">
-        <v>213.9110074201021</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201021</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,13 +6262,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,16 +6402,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.886292289268</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1288.886292289268</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6976,13 +6976,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1305.326886885503</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1016.198248099061</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>761.5137598931742</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>472.0965898562135</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688033</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471151</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557898</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1281.689320534781</v>
+        <v>1206.419805209237</v>
       </c>
       <c r="V40" t="n">
-        <v>1281.689320534781</v>
+        <v>951.73531700335</v>
       </c>
       <c r="W40" t="n">
-        <v>1281.689320534781</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.689320534781</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>441.900558318119</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C46" t="n">
-        <v>441.900558318119</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D46" t="n">
-        <v>291.7839189057833</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E46" t="n">
-        <v>291.7839189057833</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F46" t="n">
-        <v>144.8939714078729</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>441.900558318119</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>64.99271735550496</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>178.9742982929227</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>188.9596988747685</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.7356618474206</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>112.0695782210719</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>78.18013899190123</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>185.233183550236</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>50.96659166315956</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>103.6943011784296</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>44.2079648378803</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>228.6728233935897</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>30.42394386102401</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>29.89407122271405</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>71.18267187569145</v>
+        <v>218.2134127617878</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>119.2934573152664</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="G2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="G2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
@@ -26340,22 +26340,22 @@
         <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773394</v>
@@ -26441,25 +26441,25 @@
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-384076.6264631189</v>
       </c>
       <c r="C6" t="n">
+        <v>205891.2527514255</v>
+      </c>
+      <c r="D6" t="n">
         <v>205891.2527514256</v>
       </c>
-      <c r="D6" t="n">
-        <v>205891.2527514255</v>
-      </c>
       <c r="E6" t="n">
-        <v>-204871.0185047033</v>
+        <v>-203993.8863709536</v>
       </c>
       <c r="F6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="G6" t="n">
-        <v>320289.0179721929</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="H6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="I6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="J6" t="n">
-        <v>143865.7987796002</v>
+        <v>144742.9309133497</v>
       </c>
       <c r="K6" t="n">
-        <v>320289.0179721933</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="L6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059423</v>
       </c>
       <c r="M6" t="n">
-        <v>185488.0027383559</v>
+        <v>186365.1348721053</v>
       </c>
       <c r="N6" t="n">
-        <v>320289.0179721928</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="O6" t="n">
-        <v>320289.0179721928</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="P6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059424</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>27.98162540605438</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>342.1102098296478</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>36.64234305785584</v>
+        <v>38.57147555637897</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>49.00680372658869</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>8.415712917443699</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>281.1539702597867</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.52067551358101</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.88405377167439</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.1574944321145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.097085319092366e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299067</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
